--- a/docs/UserAcceptancePlan.xlsx
+++ b/docs/UserAcceptancePlan.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="30">
   <si>
     <t>Test ID</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>total UserAcceptanceTests:</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -211,9 +214,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -225,6 +225,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,26 +544,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15" customHeight="1">
-      <c r="A2" s="9"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="60">
       <c r="A3" s="2">
@@ -570,6 +573,9 @@
         <v>5</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -584,6 +590,9 @@
       <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="30">
       <c r="A5" s="2">
@@ -596,6 +605,9 @@
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30">
       <c r="A6" s="2">
@@ -608,6 +620,9 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D6" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
@@ -620,6 +635,9 @@
       <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="45.75" thickBot="1">
       <c r="A8" s="2">
@@ -632,14 +650,17 @@
       <c r="C8" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
-      <c r="A9" s="9"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="8"/>
+      <c r="B9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" ht="30">
       <c r="A10" s="2">
@@ -649,6 +670,9 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -663,6 +687,9 @@
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="45">
       <c r="A12" s="2">
@@ -675,6 +702,9 @@
       <c r="C12" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="30">
       <c r="A13" s="2">
@@ -687,8 +717,11 @@
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="60.75" thickBot="1">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="75.75" thickBot="1">
       <c r="A14" s="2">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -699,14 +732,17 @@
       <c r="C14" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="D14" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" ht="60">
       <c r="A16" s="2">
@@ -718,8 +754,11 @@
       <c r="C16" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="75">
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="75">
       <c r="A17" s="2">
         <f>A16+1</f>
         <v>2</v>
@@ -730,8 +769,11 @@
       <c r="C17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="135">
+      <c r="D17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="135">
       <c r="A18" s="2">
         <f>A17+1</f>
         <v>3</v>
@@ -742,8 +784,11 @@
       <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D18" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="B21" s="1" t="s">
         <v>28</v>
       </c>
